--- a/natmiOut/OldD4/LR-pairs_lrc2p/Hsp90aa1-Egfr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Hsp90aa1-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>84.46846681086539</v>
+        <v>94.45181500000001</v>
       </c>
       <c r="H2">
-        <v>84.46846681086539</v>
+        <v>283.355445</v>
       </c>
       <c r="I2">
-        <v>0.1435259267579395</v>
+        <v>0.1457155743604623</v>
       </c>
       <c r="J2">
-        <v>0.1435259267579395</v>
+        <v>0.1590548236774281</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.897941217831048</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N2">
-        <v>0.897941217831048</v>
+        <v>3.633172</v>
       </c>
       <c r="O2">
-        <v>0.01181103953983894</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P2">
-        <v>0.01181103953983894</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q2">
-        <v>75.84771795646992</v>
+        <v>114.3865632023934</v>
       </c>
       <c r="R2">
-        <v>75.84771795646992</v>
+        <v>1029.47906882154</v>
       </c>
       <c r="S2">
-        <v>0.00169519039593005</v>
+        <v>0.002148743083643768</v>
       </c>
       <c r="T2">
-        <v>0.00169519039593005</v>
+        <v>0.002542196396265479</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>84.46846681086539</v>
+        <v>94.45181500000001</v>
       </c>
       <c r="H3">
-        <v>84.46846681086539</v>
+        <v>283.355445</v>
       </c>
       <c r="I3">
-        <v>0.1435259267579395</v>
+        <v>0.1457155743604623</v>
       </c>
       <c r="J3">
-        <v>0.1435259267579395</v>
+        <v>0.1590548236774281</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>56.7871225945224</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N3">
-        <v>56.7871225945224</v>
+        <v>183.180478</v>
       </c>
       <c r="O3">
-        <v>0.7469475027972082</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P3">
-        <v>0.7469475027972082</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q3">
-        <v>4796.72118015996</v>
+        <v>5767.242873222523</v>
       </c>
       <c r="R3">
-        <v>4796.72118015996</v>
+        <v>51905.18585900271</v>
       </c>
       <c r="S3">
-        <v>0.1072063325784979</v>
+        <v>0.1083372285047499</v>
       </c>
       <c r="T3">
-        <v>0.1072063325784979</v>
+        <v>0.1281747054743865</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>84.46846681086539</v>
+        <v>94.45181500000001</v>
       </c>
       <c r="H4">
-        <v>84.46846681086539</v>
+        <v>283.355445</v>
       </c>
       <c r="I4">
-        <v>0.1435259267579395</v>
+        <v>0.1457155743604623</v>
       </c>
       <c r="J4">
-        <v>0.1435259267579395</v>
+        <v>0.1590548236774281</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.421752113583795</v>
+        <v>0.132278</v>
       </c>
       <c r="N4">
-        <v>0.421752113583795</v>
+        <v>0.396834</v>
       </c>
       <c r="O4">
-        <v>0.005547502209087931</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P4">
-        <v>0.005547502209087931</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q4">
-        <v>35.62475440866512</v>
+        <v>12.49389718457</v>
       </c>
       <c r="R4">
-        <v>35.62475440866512</v>
+        <v>112.44507466113</v>
       </c>
       <c r="S4">
-        <v>0.0007962103957510618</v>
+        <v>0.0002346969295300885</v>
       </c>
       <c r="T4">
-        <v>0.0007962103957510618</v>
+        <v>0.0002776719529699158</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>84.46846681086539</v>
+        <v>94.45181500000001</v>
       </c>
       <c r="H5">
-        <v>84.46846681086539</v>
+        <v>283.355445</v>
       </c>
       <c r="I5">
-        <v>0.1435259267579395</v>
+        <v>0.1457155743604623</v>
       </c>
       <c r="J5">
-        <v>0.1435259267579395</v>
+        <v>0.1590548236774281</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.918771390257</v>
+        <v>0.655122</v>
       </c>
       <c r="N5">
-        <v>17.918771390257</v>
+        <v>1.965366</v>
       </c>
       <c r="O5">
-        <v>0.2356939554538648</v>
+        <v>0.007976934012575832</v>
       </c>
       <c r="P5">
-        <v>0.2356939554538648</v>
+        <v>0.008646089649666828</v>
       </c>
       <c r="Q5">
-        <v>1513.571146469408</v>
+        <v>61.87746194643</v>
       </c>
       <c r="R5">
-        <v>1513.571146469408</v>
+        <v>556.89715751787</v>
       </c>
       <c r="S5">
-        <v>0.03382819338776045</v>
+        <v>0.001162363521277995</v>
       </c>
       <c r="T5">
-        <v>0.03382819338776045</v>
+        <v>0.001375202264726993</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>115.617517277138</v>
+        <v>94.45181500000001</v>
       </c>
       <c r="H6">
-        <v>115.617517277138</v>
+        <v>283.355445</v>
       </c>
       <c r="I6">
-        <v>0.1964533268232443</v>
+        <v>0.1457155743604623</v>
       </c>
       <c r="J6">
-        <v>0.1964533268232443</v>
+        <v>0.1590548236774281</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.897941217831048</v>
+        <v>19.068426</v>
       </c>
       <c r="N6">
-        <v>0.897941217831048</v>
+        <v>38.136852</v>
       </c>
       <c r="O6">
-        <v>0.01181103953983894</v>
+        <v>0.232182060632501</v>
       </c>
       <c r="P6">
-        <v>0.01181103953983894</v>
+        <v>0.1677726394717705</v>
       </c>
       <c r="Q6">
-        <v>103.8177342664355</v>
+        <v>1801.04744489319</v>
       </c>
       <c r="R6">
-        <v>103.8177342664355</v>
+        <v>10806.28466935914</v>
       </c>
       <c r="S6">
-        <v>0.00232031801084224</v>
+        <v>0.03383254232126058</v>
       </c>
       <c r="T6">
-        <v>0.00232031801084224</v>
+        <v>0.02668504758907916</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>115.617517277138</v>
+        <v>125.4169656666667</v>
       </c>
       <c r="H7">
-        <v>115.617517277138</v>
+        <v>376.250897</v>
       </c>
       <c r="I7">
-        <v>0.1964533268232443</v>
+        <v>0.1934870726059072</v>
       </c>
       <c r="J7">
-        <v>0.1964533268232443</v>
+        <v>0.2111994709712006</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>56.7871225945224</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N7">
-        <v>56.7871225945224</v>
+        <v>3.633172</v>
       </c>
       <c r="O7">
-        <v>0.7469475027972082</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P7">
-        <v>0.7469475027972082</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q7">
-        <v>6565.586127691147</v>
+        <v>151.8871359950316</v>
       </c>
       <c r="R7">
-        <v>6565.586127691147</v>
+        <v>1366.984223955284</v>
       </c>
       <c r="S7">
-        <v>0.1467403218868262</v>
+        <v>0.002853188554903236</v>
       </c>
       <c r="T7">
-        <v>0.1467403218868262</v>
+        <v>0.003375631883287275</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>115.617517277138</v>
+        <v>125.4169656666667</v>
       </c>
       <c r="H8">
-        <v>115.617517277138</v>
+        <v>376.250897</v>
       </c>
       <c r="I8">
-        <v>0.1964533268232443</v>
+        <v>0.1934870726059072</v>
       </c>
       <c r="J8">
-        <v>0.1964533268232443</v>
+        <v>0.2111994709712006</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.421752113583795</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N8">
-        <v>0.421752113583795</v>
+        <v>183.180478</v>
       </c>
       <c r="O8">
-        <v>0.005547502209087931</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P8">
-        <v>0.005547502209087931</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q8">
-        <v>48.76193227894389</v>
+        <v>7657.979906709863</v>
       </c>
       <c r="R8">
-        <v>48.76193227894389</v>
+        <v>68921.81916038877</v>
       </c>
       <c r="S8">
-        <v>0.001089825264534621</v>
+        <v>0.1438545830781763</v>
       </c>
       <c r="T8">
-        <v>0.001089825264534621</v>
+        <v>0.1701955927031814</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>115.617517277138</v>
+        <v>125.4169656666667</v>
       </c>
       <c r="H9">
-        <v>115.617517277138</v>
+        <v>376.250897</v>
       </c>
       <c r="I9">
-        <v>0.1964533268232443</v>
+        <v>0.1934870726059072</v>
       </c>
       <c r="J9">
-        <v>0.1964533268232443</v>
+        <v>0.2111994709712006</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>17.918771390257</v>
+        <v>0.132278</v>
       </c>
       <c r="N9">
-        <v>17.918771390257</v>
+        <v>0.396834</v>
       </c>
       <c r="O9">
-        <v>0.2356939554538648</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P9">
-        <v>0.2356939554538648</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q9">
-        <v>2071.723860798125</v>
+        <v>16.58990538445534</v>
       </c>
       <c r="R9">
-        <v>2071.723860798125</v>
+        <v>149.309148460098</v>
       </c>
       <c r="S9">
-        <v>0.04630286166104131</v>
+        <v>0.0003116401389740069</v>
       </c>
       <c r="T9">
-        <v>0.04630286166104131</v>
+        <v>0.000368704124872817</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>103.615423604238</v>
+        <v>125.4169656666667</v>
       </c>
       <c r="H10">
-        <v>103.615423604238</v>
+        <v>376.250897</v>
       </c>
       <c r="I10">
-        <v>0.176059780184169</v>
+        <v>0.1934870726059072</v>
       </c>
       <c r="J10">
-        <v>0.176059780184169</v>
+        <v>0.2111994709712006</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.897941217831048</v>
+        <v>0.655122</v>
       </c>
       <c r="N10">
-        <v>0.897941217831048</v>
+        <v>1.965366</v>
       </c>
       <c r="O10">
-        <v>0.01181103953983894</v>
+        <v>0.007976934012575832</v>
       </c>
       <c r="P10">
-        <v>0.01181103953983894</v>
+        <v>0.008646089649666828</v>
       </c>
       <c r="Q10">
-        <v>93.04055965726938</v>
+        <v>82.16341338147799</v>
       </c>
       <c r="R10">
-        <v>93.04055965726938</v>
+        <v>739.4707204333019</v>
       </c>
       <c r="S10">
-        <v>0.002079449025130572</v>
+        <v>0.001543433610463791</v>
       </c>
       <c r="T10">
-        <v>0.002079449025130572</v>
+        <v>0.001826049559979208</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>103.615423604238</v>
+        <v>125.4169656666667</v>
       </c>
       <c r="H11">
-        <v>103.615423604238</v>
+        <v>376.250897</v>
       </c>
       <c r="I11">
-        <v>0.176059780184169</v>
+        <v>0.1934870726059072</v>
       </c>
       <c r="J11">
-        <v>0.176059780184169</v>
+        <v>0.2111994709712006</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>56.7871225945224</v>
+        <v>19.068426</v>
       </c>
       <c r="N11">
-        <v>56.7871225945224</v>
+        <v>38.136852</v>
       </c>
       <c r="O11">
-        <v>0.7469475027972082</v>
+        <v>0.232182060632501</v>
       </c>
       <c r="P11">
-        <v>0.7469475027972082</v>
+        <v>0.1677726394717705</v>
       </c>
       <c r="Q11">
-        <v>5884.021762897234</v>
+        <v>2391.504128959374</v>
       </c>
       <c r="R11">
-        <v>5884.021762897234</v>
+        <v>14349.02477375624</v>
       </c>
       <c r="S11">
-        <v>0.1315074131515904</v>
+        <v>0.04492422722338988</v>
       </c>
       <c r="T11">
-        <v>0.1315074131515904</v>
+        <v>0.03543349269987989</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>103.615423604238</v>
+        <v>129.124439</v>
       </c>
       <c r="H12">
-        <v>103.615423604238</v>
+        <v>387.373317</v>
       </c>
       <c r="I12">
-        <v>0.176059780184169</v>
+        <v>0.1992067785341921</v>
       </c>
       <c r="J12">
-        <v>0.176059780184169</v>
+        <v>0.2174427762726615</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.421752113583795</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N12">
-        <v>0.421752113583795</v>
+        <v>3.633172</v>
       </c>
       <c r="O12">
-        <v>0.005547502209087931</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P12">
-        <v>0.005547502209087931</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q12">
-        <v>43.70002390496762</v>
+        <v>156.3770987635027</v>
       </c>
       <c r="R12">
-        <v>43.70002390496762</v>
+        <v>1407.393888871524</v>
       </c>
       <c r="S12">
-        <v>0.000976692019503213</v>
+        <v>0.002937532171622446</v>
       </c>
       <c r="T12">
-        <v>0.000976692019503213</v>
+        <v>0.003475419540594341</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>103.615423604238</v>
+        <v>129.124439</v>
       </c>
       <c r="H13">
-        <v>103.615423604238</v>
+        <v>387.373317</v>
       </c>
       <c r="I13">
-        <v>0.176059780184169</v>
+        <v>0.1992067785341921</v>
       </c>
       <c r="J13">
-        <v>0.176059780184169</v>
+        <v>0.2174427762726615</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.918771390257</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N13">
-        <v>17.918771390257</v>
+        <v>183.180478</v>
       </c>
       <c r="O13">
-        <v>0.2356939554538648</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P13">
-        <v>0.2356939554538648</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q13">
-        <v>1856.66108806898</v>
+        <v>7884.358819167282</v>
       </c>
       <c r="R13">
-        <v>1856.66108806898</v>
+        <v>70959.22937250554</v>
       </c>
       <c r="S13">
-        <v>0.04149622598794476</v>
+        <v>0.1481070941145032</v>
       </c>
       <c r="T13">
-        <v>0.04149622598794476</v>
+        <v>0.1752267750320138</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>129.999067045169</v>
+        <v>129.124439</v>
       </c>
       <c r="H14">
-        <v>129.999067045169</v>
+        <v>387.373317</v>
       </c>
       <c r="I14">
-        <v>0.2208899637909058</v>
+        <v>0.1992067785341921</v>
       </c>
       <c r="J14">
-        <v>0.2208899637909058</v>
+        <v>0.2174427762726615</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.897941217831048</v>
+        <v>0.132278</v>
       </c>
       <c r="N14">
-        <v>0.897941217831048</v>
+        <v>0.396834</v>
       </c>
       <c r="O14">
-        <v>0.01181103953983894</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P14">
-        <v>0.01181103953983894</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q14">
-        <v>116.7315205794391</v>
+        <v>17.080322542042</v>
       </c>
       <c r="R14">
-        <v>116.7315205794391</v>
+        <v>153.722902878378</v>
       </c>
       <c r="S14">
-        <v>0.00260894009628798</v>
+        <v>0.0003208525888104449</v>
       </c>
       <c r="T14">
-        <v>0.00260894009628798</v>
+        <v>0.0003796034533934024</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>129.999067045169</v>
+        <v>129.124439</v>
       </c>
       <c r="H15">
-        <v>129.999067045169</v>
+        <v>387.373317</v>
       </c>
       <c r="I15">
-        <v>0.2208899637909058</v>
+        <v>0.1992067785341921</v>
       </c>
       <c r="J15">
-        <v>0.2208899637909058</v>
+        <v>0.2174427762726615</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>56.7871225945224</v>
+        <v>0.655122</v>
       </c>
       <c r="N15">
-        <v>56.7871225945224</v>
+        <v>1.965366</v>
       </c>
       <c r="O15">
-        <v>0.7469475027972082</v>
+        <v>0.007976934012575832</v>
       </c>
       <c r="P15">
-        <v>0.7469475027972082</v>
+        <v>0.008646089649666828</v>
       </c>
       <c r="Q15">
-        <v>7382.272957467549</v>
+        <v>84.59226072655801</v>
       </c>
       <c r="R15">
-        <v>7382.272957467549</v>
+        <v>761.3303465390221</v>
       </c>
       <c r="S15">
-        <v>0.1649932068465828</v>
+        <v>0.001589059327225058</v>
       </c>
       <c r="T15">
-        <v>0.1649932068465828</v>
+        <v>0.001880029737325879</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>129.999067045169</v>
+        <v>129.124439</v>
       </c>
       <c r="H16">
-        <v>129.999067045169</v>
+        <v>387.373317</v>
       </c>
       <c r="I16">
-        <v>0.2208899637909058</v>
+        <v>0.1992067785341921</v>
       </c>
       <c r="J16">
-        <v>0.2208899637909058</v>
+        <v>0.2174427762726615</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.421752113583795</v>
+        <v>19.068426</v>
       </c>
       <c r="N16">
-        <v>0.421752113583795</v>
+        <v>38.136852</v>
       </c>
       <c r="O16">
-        <v>0.005547502209087931</v>
+        <v>0.232182060632501</v>
       </c>
       <c r="P16">
-        <v>0.005547502209087931</v>
+        <v>0.1677726394717705</v>
       </c>
       <c r="Q16">
-        <v>54.8273812902215</v>
+        <v>2462.199809863014</v>
       </c>
       <c r="R16">
-        <v>54.8273812902215</v>
+        <v>14773.19885917808</v>
       </c>
       <c r="S16">
-        <v>0.001225387562095403</v>
+        <v>0.04625224033203099</v>
       </c>
       <c r="T16">
-        <v>0.001225387562095403</v>
+        <v>0.03648094850933409</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>129.999067045169</v>
+        <v>136.1162363333333</v>
       </c>
       <c r="H17">
-        <v>129.999067045169</v>
+        <v>408.348709</v>
       </c>
       <c r="I17">
-        <v>0.2208899637909058</v>
+        <v>0.2099933765920337</v>
       </c>
       <c r="J17">
-        <v>0.2208899637909058</v>
+        <v>0.2292168125052277</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.918771390257</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N17">
-        <v>17.918771390257</v>
+        <v>3.633172</v>
       </c>
       <c r="O17">
-        <v>0.2356939554538648</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P17">
-        <v>0.2356939554538648</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q17">
-        <v>2329.423563329076</v>
+        <v>164.8445661972164</v>
       </c>
       <c r="R17">
-        <v>2329.423563329076</v>
+        <v>1483.601095774948</v>
       </c>
       <c r="S17">
-        <v>0.05206242928593957</v>
+        <v>0.003096592917699574</v>
       </c>
       <c r="T17">
-        <v>0.05206242928593957</v>
+        <v>0.003663605675336362</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>154.823624837462</v>
+        <v>136.1162363333333</v>
       </c>
       <c r="H18">
-        <v>154.823624837462</v>
+        <v>408.348709</v>
       </c>
       <c r="I18">
-        <v>0.2630710024437415</v>
+        <v>0.2099933765920337</v>
       </c>
       <c r="J18">
-        <v>0.2630710024437415</v>
+        <v>0.2292168125052277</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.897941217831048</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N18">
-        <v>0.897941217831048</v>
+        <v>183.180478</v>
       </c>
       <c r="O18">
-        <v>0.01181103953983894</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P18">
-        <v>0.01181103953983894</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q18">
-        <v>139.0225142355679</v>
+        <v>8311.279078366988</v>
       </c>
       <c r="R18">
-        <v>139.0225142355679</v>
+        <v>74801.5117053029</v>
       </c>
       <c r="S18">
-        <v>0.003107142011648097</v>
+        <v>0.1561267594365537</v>
       </c>
       <c r="T18">
-        <v>0.003107142011648097</v>
+        <v>0.1847149099496604</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>154.823624837462</v>
+        <v>136.1162363333333</v>
       </c>
       <c r="H19">
-        <v>154.823624837462</v>
+        <v>408.348709</v>
       </c>
       <c r="I19">
-        <v>0.2630710024437415</v>
+        <v>0.2099933765920337</v>
       </c>
       <c r="J19">
-        <v>0.2630710024437415</v>
+        <v>0.2292168125052277</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>56.7871225945224</v>
+        <v>0.132278</v>
       </c>
       <c r="N19">
-        <v>56.7871225945224</v>
+        <v>0.396834</v>
       </c>
       <c r="O19">
-        <v>0.7469475027972082</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P19">
-        <v>0.7469475027972082</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q19">
-        <v>8791.988164173299</v>
+        <v>18.00518350970066</v>
       </c>
       <c r="R19">
-        <v>8791.988164173299</v>
+        <v>162.046651587306</v>
       </c>
       <c r="S19">
-        <v>0.196500228333711</v>
+        <v>0.0003382260333125964</v>
       </c>
       <c r="T19">
-        <v>0.196500228333711</v>
+        <v>0.0004001581247918981</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>154.823624837462</v>
+        <v>136.1162363333333</v>
       </c>
       <c r="H20">
-        <v>154.823624837462</v>
+        <v>408.348709</v>
       </c>
       <c r="I20">
-        <v>0.2630710024437415</v>
+        <v>0.2099933765920337</v>
       </c>
       <c r="J20">
-        <v>0.2630710024437415</v>
+        <v>0.2292168125052277</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.421752113583795</v>
+        <v>0.655122</v>
       </c>
       <c r="N20">
-        <v>0.421752113583795</v>
+        <v>1.965366</v>
       </c>
       <c r="O20">
-        <v>0.005547502209087931</v>
+        <v>0.007976934012575832</v>
       </c>
       <c r="P20">
-        <v>0.005547502209087931</v>
+        <v>0.008646089649666828</v>
       </c>
       <c r="Q20">
-        <v>65.29719100790415</v>
+        <v>89.17274097916599</v>
       </c>
       <c r="R20">
-        <v>65.29719100790415</v>
+        <v>802.5546688124939</v>
       </c>
       <c r="S20">
-        <v>0.001459386967203633</v>
+        <v>0.001675103308152639</v>
       </c>
       <c r="T20">
-        <v>0.001459386967203633</v>
+        <v>0.001981829110131071</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>154.823624837462</v>
+        <v>136.1162363333333</v>
       </c>
       <c r="H21">
-        <v>154.823624837462</v>
+        <v>408.348709</v>
       </c>
       <c r="I21">
-        <v>0.2630710024437415</v>
+        <v>0.2099933765920337</v>
       </c>
       <c r="J21">
-        <v>0.2630710024437415</v>
+        <v>0.2292168125052277</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>17.918771390257</v>
+        <v>19.068426</v>
       </c>
       <c r="N21">
-        <v>17.918771390257</v>
+        <v>38.136852</v>
       </c>
       <c r="O21">
-        <v>0.2356939554538648</v>
+        <v>0.232182060632501</v>
       </c>
       <c r="P21">
-        <v>0.2356939554538648</v>
+        <v>0.1677726394717705</v>
       </c>
       <c r="Q21">
-        <v>2774.249139273397</v>
+        <v>2595.522379920677</v>
       </c>
       <c r="R21">
-        <v>2774.249139273397</v>
+        <v>15573.13427952407</v>
       </c>
       <c r="S21">
-        <v>0.06200424513117878</v>
+        <v>0.04875669489631518</v>
       </c>
       <c r="T21">
-        <v>0.06200424513117878</v>
+        <v>0.03845630964530798</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>163.083542</v>
+      </c>
+      <c r="H22">
+        <v>326.167084</v>
+      </c>
+      <c r="I22">
+        <v>0.2515971979074048</v>
+      </c>
+      <c r="J22">
+        <v>0.183086116573482</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.211057333333333</v>
+      </c>
+      <c r="N22">
+        <v>3.633172</v>
+      </c>
+      <c r="O22">
+        <v>0.0147461456544675</v>
+      </c>
+      <c r="P22">
+        <v>0.01598314554371009</v>
+      </c>
+      <c r="Q22">
+        <v>197.5035194850747</v>
+      </c>
+      <c r="R22">
+        <v>1185.021116910448</v>
+      </c>
+      <c r="S22">
+        <v>0.003710088926598476</v>
+      </c>
+      <c r="T22">
+        <v>0.002926292048226635</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>163.083542</v>
+      </c>
+      <c r="H23">
+        <v>326.167084</v>
+      </c>
+      <c r="I23">
+        <v>0.2515971979074048</v>
+      </c>
+      <c r="J23">
+        <v>0.183086116573482</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>61.06015933333333</v>
+      </c>
+      <c r="N23">
+        <v>183.180478</v>
+      </c>
+      <c r="O23">
+        <v>0.7434842087418319</v>
+      </c>
+      <c r="P23">
+        <v>0.8058523627949308</v>
+      </c>
+      <c r="Q23">
+        <v>9957.907059164359</v>
+      </c>
+      <c r="R23">
+        <v>59747.44235498616</v>
+      </c>
+      <c r="S23">
+        <v>0.1870585436078489</v>
+      </c>
+      <c r="T23">
+        <v>0.1475403796356886</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>163.083542</v>
+      </c>
+      <c r="H24">
+        <v>326.167084</v>
+      </c>
+      <c r="I24">
+        <v>0.2515971979074048</v>
+      </c>
+      <c r="J24">
+        <v>0.183086116573482</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.132278</v>
+      </c>
+      <c r="N24">
+        <v>0.396834</v>
+      </c>
+      <c r="O24">
+        <v>0.001610650958623747</v>
+      </c>
+      <c r="P24">
+        <v>0.001745762539921768</v>
+      </c>
+      <c r="Q24">
+        <v>21.572364768676</v>
+      </c>
+      <c r="R24">
+        <v>129.434188612056</v>
+      </c>
+      <c r="S24">
+        <v>0.0004052352679966099</v>
+      </c>
+      <c r="T24">
+        <v>0.0003196248838937349</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>163.083542</v>
+      </c>
+      <c r="H25">
+        <v>326.167084</v>
+      </c>
+      <c r="I25">
+        <v>0.2515971979074048</v>
+      </c>
+      <c r="J25">
+        <v>0.183086116573482</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.655122</v>
+      </c>
+      <c r="N25">
+        <v>1.965366</v>
+      </c>
+      <c r="O25">
+        <v>0.007976934012575832</v>
+      </c>
+      <c r="P25">
+        <v>0.008646089649666828</v>
+      </c>
+      <c r="Q25">
+        <v>106.839616202124</v>
+      </c>
+      <c r="R25">
+        <v>641.0376972127441</v>
+      </c>
+      <c r="S25">
+        <v>0.00200697424545635</v>
+      </c>
+      <c r="T25">
+        <v>0.001582978977503677</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>163.083542</v>
+      </c>
+      <c r="H26">
+        <v>326.167084</v>
+      </c>
+      <c r="I26">
+        <v>0.2515971979074048</v>
+      </c>
+      <c r="J26">
+        <v>0.183086116573482</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>19.068426</v>
+      </c>
+      <c r="N26">
+        <v>38.136852</v>
+      </c>
+      <c r="O26">
+        <v>0.232182060632501</v>
+      </c>
+      <c r="P26">
+        <v>0.1677726394717705</v>
+      </c>
+      <c r="Q26">
+        <v>3109.746452444892</v>
+      </c>
+      <c r="R26">
+        <v>12438.98580977957</v>
+      </c>
+      <c r="S26">
+        <v>0.05841635585950441</v>
+      </c>
+      <c r="T26">
+        <v>0.03071684102816933</v>
       </c>
     </row>
   </sheetData>
